--- a/Energy Consumption25.xlsx
+++ b/Energy Consumption25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10.01276504685628</v>
+        <v>2.465091977227747</v>
       </c>
       <c r="C2" t="n">
-        <v>1.064792337294355</v>
+        <v>3.692498141701704</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.61444832509617</v>
+        <v>3.98674660142422</v>
       </c>
       <c r="C3" t="n">
-        <v>1.973730638060184</v>
+        <v>8.257120541548455</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14.95743290983714</v>
+        <v>6.320821553804871</v>
       </c>
       <c r="C4" t="n">
-        <v>3.132996496608181</v>
+        <v>12.58096189793132</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>19.66002110257619</v>
+        <v>7.295785279507488</v>
       </c>
       <c r="C5" t="n">
-        <v>3.996124755398949</v>
+        <v>16.6678810491552</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19.83511055425902</v>
+        <v>9.296406709044936</v>
       </c>
       <c r="C6" t="n">
-        <v>4.974663701679384</v>
+        <v>20.48535161316388</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22.76519275629009</v>
+        <v>11.40254855409558</v>
       </c>
       <c r="C7" t="n">
-        <v>6.283618470304171</v>
+        <v>24.53397119679713</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.93491014167079</v>
+        <v>13.62433808955116</v>
       </c>
       <c r="C8" t="n">
-        <v>7.504567416473101</v>
+        <v>28.74625142898509</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>26.68055337172389</v>
+        <v>15.81063297057566</v>
       </c>
       <c r="C9" t="n">
-        <v>8.52002430814956</v>
+        <v>32.79532050261079</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26.86295287995357</v>
+        <v>16.65153234147942</v>
       </c>
       <c r="C10" t="n">
-        <v>9.445578697682286</v>
+        <v>36.60154096709385</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>27.08958567310342</v>
+        <v>17.42086202135393</v>
       </c>
       <c r="C11" t="n">
-        <v>10.28735541531018</v>
+        <v>41.01487656732795</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>27.15313182846088</v>
+        <v>20.29479243278586</v>
       </c>
       <c r="C12" t="n">
-        <v>11.35600554222489</v>
+        <v>45.47795098574854</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.11464671994589</v>
+        <v>22.43181099330758</v>
       </c>
       <c r="C13" t="n">
-        <v>13.24486933802999</v>
+        <v>49.34874378640399</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29.25337464773377</v>
+        <v>23.37899185267504</v>
       </c>
       <c r="C14" t="n">
-        <v>14.21105633568095</v>
+        <v>53.2933518821994</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>29.6472585563807</v>
+        <v>26.13930710349315</v>
       </c>
       <c r="C15" t="n">
-        <v>15.60414330988622</v>
+        <v>57.62198531478955</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30.10864475644359</v>
+        <v>29.59143846964884</v>
       </c>
       <c r="C16" t="n">
-        <v>16.51031542602638</v>
+        <v>61.97989980019731</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>30.89272642805682</v>
+        <v>31.83510712643087</v>
       </c>
       <c r="C17" t="n">
-        <v>17.7055960434784</v>
+        <v>65.99720092520941</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>33.29669165666038</v>
+        <v>33.41030340071416</v>
       </c>
       <c r="C18" t="n">
-        <v>18.75801555219172</v>
+        <v>70.25700551979301</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>40.74562586363834</v>
+        <v>36.24794953173991</v>
       </c>
       <c r="C19" t="n">
-        <v>19.63911164967908</v>
+        <v>74.35407449972459</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>44.32522024936934</v>
+        <v>38.22688281316102</v>
       </c>
       <c r="C20" t="n">
-        <v>20.94074478981963</v>
+        <v>78.60941169504417</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>46.18516429236686</v>
+        <v>40.36573812032713</v>
       </c>
       <c r="C21" t="n">
-        <v>22.31722874219462</v>
+        <v>82.70924243515746</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>48.3781095398579</v>
+        <v>41.53970161309928</v>
       </c>
       <c r="C22" t="n">
-        <v>23.51852011488296</v>
+        <v>86.9816743317766</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>52.42338808120997</v>
+        <v>43.21082538763684</v>
       </c>
       <c r="C23" t="n">
-        <v>24.55254977566735</v>
+        <v>90.79920462701058</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>52.79111868242006</v>
+        <v>45.22656396597057</v>
       </c>
       <c r="C24" t="n">
-        <v>25.78833499967233</v>
+        <v>95.13090259869857</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>55.20181429326287</v>
+        <v>46.16781786297612</v>
       </c>
       <c r="C25" t="n">
-        <v>26.79322169837286</v>
+        <v>98.91194471471545</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>59.85118893825083</v>
+        <v>49.02109054520594</v>
       </c>
       <c r="C26" t="n">
-        <v>27.58621564787793</v>
+        <v>103.1482166925268</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>61.18852040025492</v>
+        <v>49.8586144872416</v>
       </c>
       <c r="C27" t="n">
-        <v>28.41129164484418</v>
+        <v>107.6629477656295</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>62.01381824514201</v>
+        <v>51.99609072055997</v>
       </c>
       <c r="C28" t="n">
-        <v>29.2561356931862</v>
+        <v>111.8702576416018</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>63.62044753167444</v>
+        <v>55.92027498799172</v>
       </c>
       <c r="C29" t="n">
-        <v>30.54413072578765</v>
+        <v>117.6219403525507</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>65.11105312344925</v>
+        <v>59.70210892696766</v>
       </c>
       <c r="C30" t="n">
-        <v>31.47859949753796</v>
+        <v>121.3400468714738</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>67.18660468596852</v>
+        <v>61.20959529930025</v>
       </c>
       <c r="C31" t="n">
-        <v>32.68028205569493</v>
+        <v>125.5519716545458</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>67.31101229890017</v>
+        <v>62.99657133408933</v>
       </c>
       <c r="C32" t="n">
-        <v>33.69407058248633</v>
+        <v>129.6518667243479</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.0171582431006</v>
+        <v>64.81888372075333</v>
       </c>
       <c r="C33" t="n">
-        <v>35.10767573824695</v>
+        <v>133.5378243134733</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.34837960022165</v>
+        <v>66.11370085601297</v>
       </c>
       <c r="C34" t="n">
-        <v>36.02210592633083</v>
+        <v>138.0309667284715</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>72.5811122030122</v>
+        <v>70.7375424185368</v>
       </c>
       <c r="C35" t="n">
-        <v>36.93780291841128</v>
+        <v>141.8989012554992</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>72.70153054008584</v>
+        <v>72.42480208725435</v>
       </c>
       <c r="C36" t="n">
-        <v>38.01443570233175</v>
+        <v>146.1518802730397</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>77.26236081923845</v>
+        <v>74.29362901006392</v>
       </c>
       <c r="C37" t="n">
-        <v>39.29301376424507</v>
+        <v>149.7598442004259</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>78.01561270383722</v>
+        <v>75.9025392317176</v>
       </c>
       <c r="C38" t="n">
-        <v>40.20635721136872</v>
+        <v>154.32911828045</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>79.56889575366351</v>
+        <v>77.34403965928399</v>
       </c>
       <c r="C39" t="n">
-        <v>41.79733957085996</v>
+        <v>158.7521628496195</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>82.2113457729799</v>
+        <v>77.80151278097104</v>
       </c>
       <c r="C40" t="n">
-        <v>42.71579870661585</v>
+        <v>162.6067022047367</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>84.56125591183253</v>
+        <v>79.25494671760097</v>
       </c>
       <c r="C41" t="n">
-        <v>43.72086031119935</v>
+        <v>167.728127799157</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>84.77845887298734</v>
+        <v>81.2554269542062</v>
       </c>
       <c r="C42" t="n">
-        <v>44.83941288632003</v>
+        <v>171.794438868152</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>84.95654147927345</v>
+        <v>82.78332659661285</v>
       </c>
       <c r="C43" t="n">
-        <v>46.07316923546549</v>
+        <v>176.0879111341021</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>85.19475728605099</v>
+        <v>84.30725099895773</v>
       </c>
       <c r="C44" t="n">
-        <v>47.60998009169538</v>
+        <v>180.5252297022838</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>88.57407147799763</v>
+        <v>86.73446636015788</v>
       </c>
       <c r="C45" t="n">
-        <v>49.10186625069607</v>
+        <v>185.1946300189942</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>90.19686970346298</v>
+        <v>88.25931581463048</v>
       </c>
       <c r="C46" t="n">
-        <v>50.14062229126228</v>
+        <v>189.6237043016379</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>90.69791620148349</v>
+        <v>89.56888375214771</v>
       </c>
       <c r="C47" t="n">
-        <v>51.37565447841858</v>
+        <v>193.8393638159411</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>92.1371323002998</v>
+        <v>93.19519895409421</v>
       </c>
       <c r="C48" t="n">
-        <v>52.42614182860316</v>
+        <v>197.7229260052057</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,21 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>94.89117602387159</v>
+        <v>95.61472246210842</v>
       </c>
       <c r="C49" t="n">
-        <v>53.43026461805385</v>
+        <v>202.9526369504172</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>97.40484373025957</v>
+      </c>
+      <c r="C50" t="n">
+        <v>207.1380315624927</v>
       </c>
     </row>
   </sheetData>
